--- a/pred_ohlcv/54_21/2019-10-25 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 KNC ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1400214.337</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1429969.2363</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1429908.6832</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1441365.2068</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1441364.2068</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1442265.3576</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1442265.3576</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1442265.3576</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1448461.597099999</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1448461.597099999</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1448461.597099999</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1448461.597099999</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1449248.338599999</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1450547.029499999</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1450547.029499999</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1518491.230799999</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1509462.155899999</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1509462.155899999</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1508935.8402</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1509239.184099999</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1507570.184099999</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1506570.184099999</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1506570.184099999</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1546107.0133</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1539546.9217</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1539531.9217</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1539531.9217</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1539531.9217</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1536661.5902</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1536961.5902</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1530641.2182</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1537471.970599999</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1537251.601599999</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1522354.502699999</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1517592.459499999</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1512975.845299999</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1511060.491499999</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1511912.287599999</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1511911.287599999</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1512211.287499999</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1512211.287499999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1512224.040099999</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1510929.559799999</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1510930.559799999</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1510929.559799999</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1510929.559799999</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1510929.559799999</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1510929.559799999</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1510093.688799999</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1510093.688799999</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1506493.075999999</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1507322.075999999</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1507322.075999999</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1504835.865799999</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1504835.865799999</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1522723.983899999</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1524973.983899999</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1524972.983899999</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1560688.209399999</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1560488.209399999</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1560488.209399999</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-25 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 KNC ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-869565.4076999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>174292.8917000002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-192507.1082999998</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>205509.8863000001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>525393.5411000001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1080724.5531</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1418320.5531</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1400214.337</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1401169.0004</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1429969.2363</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1441365.2068</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1441364.2068</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1442265.3576</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1448461.597099999</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1448461.597099999</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1449248.338599999</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1449078.573699999</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1450547.029499999</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1450547.029499999</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1450253.555599999</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1518491.230799999</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1509462.155899999</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1509462.155899999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1508935.8402</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1509239.184099999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1507570.184099999</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1507570.184099999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1506570.184099999</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1536961.5902</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1536961.5902</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1537109.2882</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1531442.2182</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1530641.2182</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1530641.2182</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1541124.484699999</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1537471.970599999</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1537251.601599999</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1522354.502699999</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1522620.056299999</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1517592.459499999</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1511060.491499999</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1511912.287599999</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1512211.287499999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1506493.075999999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1507322.075999999</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1507322.075999999</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1504835.865799999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1504835.865799999</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1516726.761199999</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1522724.983899999</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1524973.983899999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1560688.209399999</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1560488.209399999</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
